--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C560090-2912-4B11-9375-9E8F6F23EA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A97CCC9-3016-4257-B5C3-485AB326B865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -233,7 +232,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -318,7 +317,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
                 <c:ptCount val="18"/>
@@ -381,7 +380,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$19</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -751,7 +750,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -836,7 +835,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
                 <c:ptCount val="18"/>
@@ -899,7 +898,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$19</c:f>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -972,7 +971,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1057,7 +1056,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1120,7 +1119,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$19</c:f>
+              <c:f>Sheet1!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1521,7 +1520,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1627,7 +1626,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1690,7 +1689,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$19</c:f>
+              <c:f>Sheet1!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1762,7 +1761,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1868,7 +1867,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1931,7 +1930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$19</c:f>
+              <c:f>Sheet1!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -4259,10 +4258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="B1:H19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -4278,356 +4277,356 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>44405</v>
+      </c>
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
+      <c r="C2" s="1">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>171</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
-        <v>44405</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>171</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44406</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D17" si="0">D2+B3</f>
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E17" si="1">E2+C3</f>
+        <v>184</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
-        <v>44406</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E17" si="0">E2+C3</f>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F17" si="1">F2+D3</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>44407</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10</v>
-      </c>
       <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="1">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>44408</v>
       </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
       <c r="C5" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>44409</v>
       </c>
+      <c r="B6" s="1">
+        <v>26</v>
+      </c>
       <c r="C6" s="1">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>44410</v>
       </c>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
       <c r="C7" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="F7" s="1">
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>44411</v>
       </c>
+      <c r="B8" s="1">
+        <v>32</v>
+      </c>
       <c r="C8" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>44412</v>
       </c>
+      <c r="B9" s="1">
+        <v>36</v>
+      </c>
       <c r="C9" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="F9" s="1">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>44413</v>
       </c>
+      <c r="B10" s="1">
+        <v>58</v>
+      </c>
       <c r="C10" s="1">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="F10" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>44414</v>
       </c>
+      <c r="B11" s="1">
+        <v>52</v>
+      </c>
       <c r="C11" s="1">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>272</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>44415</v>
       </c>
+      <c r="B12" s="1">
+        <v>36</v>
+      </c>
       <c r="C12" s="1">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>308</v>
       </c>
-      <c r="F12" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>44416</v>
       </c>
+      <c r="B13" s="1">
+        <v>38</v>
+      </c>
       <c r="C13" s="1">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="F13" s="1">
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>44417</v>
       </c>
+      <c r="B14" s="1">
+        <v>48</v>
+      </c>
       <c r="C14" s="1">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>394</v>
       </c>
-      <c r="F14" s="1">
+      <c r="E14" s="1">
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>44418</v>
       </c>
+      <c r="B15" s="1">
+        <v>54</v>
+      </c>
       <c r="C15" s="1">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>448</v>
       </c>
-      <c r="F15" s="1">
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>44419</v>
       </c>
+      <c r="B16" s="1">
+        <v>37</v>
+      </c>
       <c r="C16" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>485</v>
       </c>
-      <c r="F16" s="1">
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>44420</v>
       </c>
+      <c r="B17" s="1">
+        <v>25</v>
+      </c>
       <c r="C17" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="F17" s="1">
+      <c r="E17" s="1">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>44421</v>
       </c>
+      <c r="B18" s="1">
+        <v>18</v>
+      </c>
       <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>528</v>
+      </c>
+      <c r="E18" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>44422</v>
+      </c>
+      <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="D18" s="1">
+      <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
-        <v>528</v>
-      </c>
-      <c r="F18" s="1">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
-        <v>44422</v>
-      </c>
-      <c r="C19" s="1">
-        <v>18</v>
-      </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="E19" s="1">
-        <v>546</v>
-      </c>
-      <c r="F19" s="1">
         <v>235</v>
       </c>
     </row>
@@ -4637,19 +4636,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C98EE8D-81EA-4A5D-AA93-54FB3FFA276C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A97CCC9-3016-4257-B5C3-485AB326B865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9856FEA9-5B91-4DB2-A003-67F01869E32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>扬州新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +54,18 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州出院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州现有确诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扬州累计出院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -118,6 +131,18 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -374,16 +399,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -437,6 +465,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -444,7 +475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1ED7-49FA-A49F-C249B85A2B5E}"/>
+              <c16:uniqueId val="{00000000-36DA-4612-BE9B-B6950A03E754}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -835,10 +866,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -892,16 +923,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -955,6 +989,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +999,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0475-4893-BE99-F8B7D764238D}"/>
+              <c16:uniqueId val="{00000000-69B4-491C-AA11-5B0DE2039A41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1056,10 +1093,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1113,16 +1150,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$19</c:f>
+              <c:f>Sheet1!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1175,6 +1215,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1183,7 +1226,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0475-4893-BE99-F8B7D764238D}"/>
+              <c16:uniqueId val="{00000001-69B4-491C-AA11-5B0DE2039A41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1624,12 +1667,26 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1683,16 +1740,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$19</c:f>
+              <c:f>Sheet1!$D$2:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1746,13 +1806,16 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-65BA-4274-8F4A-A2F3BFD0138A}"/>
+              <c16:uniqueId val="{00000001-9A48-4598-9509-5E214DFBABC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1867,10 +1930,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1924,16 +1987,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>44422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$19</c:f>
+              <c:f>Sheet1!$E$2:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -1986,6 +2052,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -1993,7 +2062,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C899-49C3-8E86-5A638144D319}"/>
+              <c16:uniqueId val="{00000002-9A48-4598-9509-5E214DFBABC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2245,6 +2314,539 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>扬州现有确诊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>m\/d</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>44405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44406</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44411</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44415</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44416</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44419</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44420</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44421</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6AAA-488F-8BD7-0BC5C5DB301A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="619552528"/>
+        <c:axId val="619573744"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="619552528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m\/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619573744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="619573744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619552528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="0"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -2356,6 +2958,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -3844,31 +4483,529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="283">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>633600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>159525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="图表 6">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD635DF4-30D0-404D-8A7E-31C825D86433}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8714F196-B756-4626-9EF7-F49427626E70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3884,23 +5021,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>633600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>35700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDD82DA-DAFA-4F5B-8573-57AD8DE6E4CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524D2B36-490B-4CF0-A546-1401DB278E23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3922,23 +5059,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419103</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>70726</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>93273</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18526</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DB5F72-6F91-488E-BA7C-33BE395852A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6304E9-B808-4813-96BF-6E0E3C93A6CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3953,6 +5090,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14474</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>159525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6100D02F-5EF5-4CC4-B8AE-DC4744D70B41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4258,43 +5433,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" customWidth="1"/>
+    <col min="3" max="6" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44405</v>
       </c>
@@ -4310,8 +5492,18 @@
       <c r="E2" s="1">
         <v>171</v>
       </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <f>D2-G2</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44406</v>
       </c>
@@ -4329,8 +5521,18 @@
         <f t="shared" ref="E3:E17" si="1">E2+C3</f>
         <v>184</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H20" si="2">D3-G3</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44407</v>
       </c>
@@ -4348,8 +5550,18 @@
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44408</v>
       </c>
@@ -4367,8 +5579,18 @@
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44409</v>
       </c>
@@ -4386,8 +5608,18 @@
         <f t="shared" si="1"/>
         <v>215</v>
       </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44410</v>
       </c>
@@ -4405,8 +5637,18 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44411</v>
       </c>
@@ -4424,8 +5666,18 @@
         <f t="shared" si="1"/>
         <v>223</v>
       </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44412</v>
       </c>
@@ -4443,8 +5695,18 @@
         <f t="shared" si="1"/>
         <v>227</v>
       </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44413</v>
       </c>
@@ -4462,8 +5724,18 @@
         <f t="shared" si="1"/>
         <v>228</v>
       </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44414</v>
       </c>
@@ -4481,8 +5753,18 @@
         <f t="shared" si="1"/>
         <v>229</v>
       </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44415</v>
       </c>
@@ -4500,8 +5782,18 @@
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44416</v>
       </c>
@@ -4519,8 +5811,18 @@
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44417</v>
       </c>
@@ -4538,8 +5840,18 @@
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="2"/>
+        <v>393</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44418</v>
       </c>
@@ -4557,8 +5869,18 @@
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="2"/>
+        <v>447</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44419</v>
       </c>
@@ -4576,8 +5898,18 @@
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44420</v>
       </c>
@@ -4595,8 +5927,18 @@
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>509</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44421</v>
       </c>
@@ -4612,8 +5954,18 @@
       <c r="E18" s="1">
         <v>235</v>
       </c>
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>524</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44422</v>
       </c>
@@ -4628,12 +5980,66 @@
       </c>
       <c r="E19" s="1">
         <v>235</v>
+      </c>
+      <c r="F19" s="1">
+        <f>G19-G18</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>552</v>
+      </c>
+      <c r="E20" s="1">
+        <v>235</v>
+      </c>
+      <c r="F20" s="1">
+        <f>G20-G19</f>
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A3768E-1F70-465C-B0AD-6184F2568EB5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9856FEA9-5B91-4DB2-A003-67F01869E32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19D731D-07E0-4760-BBE6-9310A6BF5DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -402,16 +402,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -468,6 +471,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,7 +481,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-36DA-4612-BE9B-B6950A03E754}"/>
+              <c16:uniqueId val="{00000000-F08A-4AA1-8CCB-848D5DE8FF84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -600,7 +606,7 @@
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
+        <c:showKeys val="0"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525">
@@ -866,10 +872,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -926,16 +932,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$20</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -992,6 +1001,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,7 +1011,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-69B4-491C-AA11-5B0DE2039A41}"/>
+              <c16:uniqueId val="{00000000-CA1F-4B63-A304-2FAD9C5360A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1093,10 +1105,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1153,16 +1165,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$20</c:f>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1218,6 +1233,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1226,7 +1244,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-69B4-491C-AA11-5B0DE2039A41}"/>
+              <c16:uniqueId val="{00000001-CA1F-4B63-A304-2FAD9C5360A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1683,10 +1701,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1743,16 +1761,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$20</c:f>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1809,13 +1830,16 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9A48-4598-9509-5E214DFBABC7}"/>
+              <c16:uniqueId val="{00000001-2B6A-4369-92CF-6BE020F124FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1930,10 +1954,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1990,16 +2014,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$20</c:f>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2055,6 +2082,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2062,7 +2092,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9A48-4598-9509-5E214DFBABC7}"/>
+              <c16:uniqueId val="{00000002-2B6A-4369-92CF-6BE020F124FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2495,10 +2525,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$20</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2555,16 +2585,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>44423</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$20</c:f>
+              <c:f>Sheet1!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2621,13 +2654,16 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6AAA-488F-8BD7-0BC5C5DB301A}"/>
+              <c16:uniqueId val="{00000001-CE58-414B-8965-1ABA269323AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4983,23 +5019,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>633600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>159525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>395475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>245250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8714F196-B756-4626-9EF7-F49427626E70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D31D88-3BE8-4E3A-9BF1-A27F54E94778}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5021,23 +5057,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>633600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>35700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>395475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524D2B36-490B-4CF0-A546-1401DB278E23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A04EF6D-7751-40A8-8179-CEED9068CFED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5059,23 +5095,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>70726</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>518401</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>18526</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>45225</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>466201</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>83325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6304E9-B808-4813-96BF-6E0E3C93A6CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292A0B04-478E-41B5-864B-474C979BA458}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5097,23 +5133,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>14474</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>159525</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>462149</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>245250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6100D02F-5EF5-4CC4-B8AE-DC4744D70B41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6430374-C3FC-498B-848F-9EF905FFA6BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5433,10 +5469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -5528,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H20" si="2">D3-G3</f>
+        <f t="shared" ref="H3:H21" si="2">D3-G3</f>
         <v>6</v>
       </c>
     </row>
@@ -6019,12 +6055,41 @@
       <c r="H20" s="5">
         <f t="shared" si="2"/>
         <v>542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>44424</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>555</v>
+      </c>
+      <c r="E21" s="1">
+        <v>235</v>
+      </c>
+      <c r="F21" s="1">
+        <f>G21-G20</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" s="5">
+        <f>D21-G21</f>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6032,14 +6097,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A3768E-1F70-465C-B0AD-6184F2568EB5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19D731D-07E0-4760-BBE6-9310A6BF5DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C5E87-CB90-456B-A603-EE61C3CE84FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -405,16 +405,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -474,6 +477,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,10 +878,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -935,16 +941,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1004,6 +1013,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,10 +1117,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1168,16 +1180,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:f>Sheet1!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1236,6 +1251,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1701,10 +1719,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1764,16 +1782,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:f>Sheet1!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1833,6 +1854,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1954,10 +1978,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2017,16 +2041,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:f>Sheet1!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2085,6 +2112,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2525,10 +2555,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2588,16 +2618,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$21</c:f>
+              <c:f>Sheet1!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2657,6 +2690,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5022,13 +5058,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>395475</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>245250</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5060,13 +5096,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>395475</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>159525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5098,13 +5134,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>518401</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>466201</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>83325</xdr:rowOff>
+      <xdr:rowOff>169050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5136,13 +5172,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>514349</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>462149</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>245250</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5469,10 +5505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -5564,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" ref="H3:H21" si="2">D3-G3</f>
+        <f t="shared" ref="H3:H20" si="2">D3-G3</f>
         <v>6</v>
       </c>
     </row>
@@ -6083,6 +6119,34 @@
       <c r="H21" s="5">
         <f>D21-G21</f>
         <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>44425</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>561</v>
+      </c>
+      <c r="E22" s="1">
+        <v>235</v>
+      </c>
+      <c r="F22" s="1">
+        <f>G22-G21</f>
+        <v>15</v>
+      </c>
+      <c r="G22" s="1">
+        <v>35</v>
+      </c>
+      <c r="H22" s="5">
+        <f>D22-G22</f>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C5E87-CB90-456B-A603-EE61C3CE84FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5123C-2590-4282-B124-6B22BCB9A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -408,16 +408,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -480,6 +483,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,10 +884,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -944,16 +950,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$22</c:f>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1016,6 +1025,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,10 +1129,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1183,16 +1195,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$22</c:f>
+              <c:f>Sheet1!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1254,6 +1269,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1719,10 +1737,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1785,16 +1803,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$22</c:f>
+              <c:f>Sheet1!$D$2:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1857,6 +1878,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,10 +2002,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2044,16 +2068,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$22</c:f>
+              <c:f>Sheet1!$E$2:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2115,6 +2142,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2555,10 +2585,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2621,16 +2651,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44425</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$22</c:f>
+              <c:f>Sheet1!$H$2:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2693,6 +2726,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5056,15 +5092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>113100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>395475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83325</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>310950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>245250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5094,15 +5130,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>113100</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>395475</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>310950</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>159525</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5131,16 +5167,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>518401</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>412426</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>466201</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>286426</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>169050</xdr:rowOff>
+      <xdr:rowOff>83325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5169,16 +5205,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>417899</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>462149</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83325</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>291899</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>245250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5505,10 +5541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6147,6 +6183,33 @@
       <c r="H22" s="5">
         <f>D22-G22</f>
         <v>526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>44426</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>564</v>
+      </c>
+      <c r="E23" s="1">
+        <v>235</v>
+      </c>
+      <c r="F23" s="1">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1">
+        <v>48</v>
+      </c>
+      <c r="H23" s="5">
+        <f>D23-G23</f>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA5123C-2590-4282-B124-6B22BCB9A2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D8B6B0-928D-4BC7-98B1-24374B35E860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -411,16 +411,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -486,6 +489,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,10 +890,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -953,16 +959,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1028,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,10 +1141,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1198,16 +1210,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$23</c:f>
+              <c:f>Sheet1!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1272,6 +1287,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1737,10 +1755,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1806,16 +1824,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$23</c:f>
+              <c:f>Sheet1!$D$2:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1881,6 +1902,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2002,10 +2026,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2071,16 +2095,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$23</c:f>
+              <c:f>Sheet1!$E$2:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2145,6 +2172,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2585,10 +2615,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2654,16 +2684,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$23</c:f>
+              <c:f>Sheet1!$H$2:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2729,6 +2762,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5541,10 +5577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6210,6 +6246,36 @@
       <c r="H23" s="5">
         <f>D23-G23</f>
         <v>516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>44427</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <f>D23+B24</f>
+        <v>566</v>
+      </c>
+      <c r="E24" s="1">
+        <f>E23+C24</f>
+        <v>235</v>
+      </c>
+      <c r="F24" s="1">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1">
+        <f>G23+F24</f>
+        <v>70</v>
+      </c>
+      <c r="H24" s="5">
+        <f>D24-G24</f>
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D8B6B0-928D-4BC7-98B1-24374B35E860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40B0576-CD60-495D-BC53-CF08C64FE3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -414,16 +414,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$24</c:f>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -492,6 +495,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,10 +896,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -962,16 +968,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$24</c:f>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1040,6 +1049,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,10 +1153,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1213,16 +1225,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$24</c:f>
+              <c:f>Sheet1!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1290,6 +1305,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1755,10 +1773,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1827,16 +1845,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$24</c:f>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1905,6 +1926,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,10 +2050,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2098,16 +2122,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$24</c:f>
+              <c:f>Sheet1!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2175,6 +2202,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2615,10 +2645,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$24</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2687,16 +2717,19 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44427</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$24</c:f>
+              <c:f>Sheet1!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2765,6 +2798,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5204,13 +5240,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>412426</xdr:colOff>
+      <xdr:colOff>390151</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>286426</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>251551</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>83325</xdr:rowOff>
     </xdr:to>
@@ -5242,13 +5278,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>417899</xdr:colOff>
+      <xdr:colOff>395624</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>291899</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>257024</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>245250</xdr:rowOff>
     </xdr:to>
@@ -5577,10 +5613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6276,6 +6312,36 @@
       <c r="H24" s="5">
         <f>D24-G24</f>
         <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>44428</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <f>D24+B25</f>
+        <v>567</v>
+      </c>
+      <c r="E25" s="1">
+        <f>E24+C25</f>
+        <v>235</v>
+      </c>
+      <c r="F25" s="1">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1">
+        <f>G24+F25</f>
+        <v>88</v>
+      </c>
+      <c r="H25" s="5">
+        <f>D25-G25</f>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40B0576-CD60-495D-BC53-CF08C64FE3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F3B523-6290-4BD4-AA02-5A540D2ED476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -417,16 +417,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -497,6 +500,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -896,10 +902,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -971,16 +977,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1051,6 +1060,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1153,10 +1165,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1228,16 +1240,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$25</c:f>
+              <c:f>Sheet1!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1308,6 +1323,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1773,10 +1791,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1848,16 +1866,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:f>Sheet1!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1929,6 +1950,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2050,10 +2074,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2125,16 +2149,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$25</c:f>
+              <c:f>Sheet1!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2205,6 +2232,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2645,10 +2675,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2720,16 +2750,19 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$25</c:f>
+              <c:f>Sheet1!$H$2:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2801,6 +2834,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5164,13 +5200,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>113100</xdr:colOff>
+      <xdr:colOff>187290</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>310950</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>427260</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>245250</xdr:rowOff>
     </xdr:to>
@@ -5202,13 +5238,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>113100</xdr:colOff>
+      <xdr:colOff>187290</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>310950</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>427260</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
@@ -5239,16 +5275,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390151</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>191341</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>251551</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>83325</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431311</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5277,16 +5313,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>395624</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196814</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>257024</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>245250</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>436784</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>235725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5613,10 +5649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="A26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6342,6 +6378,36 @@
       <c r="H25" s="5">
         <f>D25-G25</f>
         <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>44429</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <f>D25+B26</f>
+        <v>568</v>
+      </c>
+      <c r="E26" s="1">
+        <f>E25+C26</f>
+        <v>235</v>
+      </c>
+      <c r="F26" s="1">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1">
+        <f>G25+F26</f>
+        <v>113</v>
+      </c>
+      <c r="H26" s="5">
+        <f>D26-G26</f>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F3B523-6290-4BD4-AA02-5A540D2ED476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171713DE-447E-4BA5-9867-6F9661F4DDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -420,16 +420,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -504,6 +507,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,10 +908,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -980,16 +986,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1064,6 +1073,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,10 +1177,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1243,16 +1255,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$26</c:f>
+              <c:f>Sheet1!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1326,6 +1341,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1791,10 +1809,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1869,16 +1887,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$26</c:f>
+              <c:f>Sheet1!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1952,6 +1973,9 @@
                   <c:v>567</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>568</c:v>
                 </c:pt>
               </c:numCache>
@@ -2074,10 +2098,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2152,16 +2176,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$26</c:f>
+              <c:f>Sheet1!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2235,6 +2262,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2675,10 +2705,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2753,16 +2783,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>44429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44430</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$26</c:f>
+              <c:f>Sheet1!$H$2:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2837,6 +2870,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5649,10 +5685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="A26:H26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6261,7 +6297,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="5">
-        <f>D21-G21</f>
+        <f t="shared" ref="H21:H26" si="3">D21-G21</f>
         <v>535</v>
       </c>
     </row>
@@ -6289,7 +6325,7 @@
         <v>35</v>
       </c>
       <c r="H22" s="5">
-        <f>D22-G22</f>
+        <f t="shared" si="3"/>
         <v>526</v>
       </c>
     </row>
@@ -6316,7 +6352,7 @@
         <v>48</v>
       </c>
       <c r="H23" s="5">
-        <f>D23-G23</f>
+        <f t="shared" si="3"/>
         <v>516</v>
       </c>
     </row>
@@ -6331,11 +6367,11 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <f>D23+B24</f>
+        <f t="shared" ref="D24:E27" si="4">D23+B24</f>
         <v>566</v>
       </c>
       <c r="E24" s="1">
-        <f>E23+C24</f>
+        <f t="shared" si="4"/>
         <v>235</v>
       </c>
       <c r="F24" s="1">
@@ -6346,7 +6382,7 @@
         <v>70</v>
       </c>
       <c r="H24" s="5">
-        <f>D24-G24</f>
+        <f t="shared" si="3"/>
         <v>496</v>
       </c>
     </row>
@@ -6361,11 +6397,11 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <f>D24+B25</f>
+        <f t="shared" si="4"/>
         <v>567</v>
       </c>
       <c r="E25" s="1">
-        <f>E24+C25</f>
+        <f t="shared" si="4"/>
         <v>235</v>
       </c>
       <c r="F25" s="1">
@@ -6376,7 +6412,7 @@
         <v>88</v>
       </c>
       <c r="H25" s="5">
-        <f>D25-G25</f>
+        <f t="shared" si="3"/>
         <v>479</v>
       </c>
     </row>
@@ -6391,11 +6427,11 @@
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <f>D25+B26</f>
+        <f t="shared" si="4"/>
         <v>568</v>
       </c>
       <c r="E26" s="1">
-        <f>E25+C26</f>
+        <f t="shared" si="4"/>
         <v>235</v>
       </c>
       <c r="F26" s="1">
@@ -6406,8 +6442,38 @@
         <v>113</v>
       </c>
       <c r="H26" s="5">
-        <f>D26-G26</f>
+        <f t="shared" si="3"/>
         <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>44430</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="4"/>
+        <v>568</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="4"/>
+        <v>235</v>
+      </c>
+      <c r="F27" s="1">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1">
+        <f>G26+F27</f>
+        <v>140</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" ref="H27" si="5">D27-G27</f>
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171713DE-447E-4BA5-9867-6F9661F4DDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4362C233-BC7A-40CA-A08F-582332C6F4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -423,16 +423,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -509,6 +512,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -908,10 +914,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -989,16 +995,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$27</c:f>
+              <c:f>Sheet1!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1075,6 +1084,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1177,10 +1189,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1258,16 +1270,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:f>Sheet1!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1344,6 +1359,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1809,10 +1827,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1890,16 +1908,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$27</c:f>
+              <c:f>Sheet1!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1976,6 +1997,9 @@
                   <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>568</c:v>
                 </c:pt>
               </c:numCache>
@@ -2098,10 +2122,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2179,16 +2203,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$27</c:f>
+              <c:f>Sheet1!$E$2:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2265,6 +2292,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2705,10 +2735,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$27</c:f>
+              <c:f>Sheet1!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2786,16 +2816,19 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44430</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$27</c:f>
+              <c:f>Sheet1!$H$2:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2873,6 +2906,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5685,10 +5721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6474,6 +6510,36 @@
       <c r="H27" s="5">
         <f t="shared" ref="H27" si="5">D27-G27</f>
         <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>44431</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28" si="6">D27+B28</f>
+        <v>568</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28" si="7">E27+C28</f>
+        <v>235</v>
+      </c>
+      <c r="F28" s="1">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1">
+        <f>G27+F28</f>
+        <v>175</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" ref="H28" si="8">D28-G28</f>
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4362C233-BC7A-40CA-A08F-582332C6F4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B6D916-E4A4-4FBE-B9AD-5F8D1E54470D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -426,16 +426,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -516,6 +519,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,10 +920,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -998,16 +1004,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$28</c:f>
+              <c:f>Sheet1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1088,6 +1097,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,10 +1201,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1273,16 +1285,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$28</c:f>
+              <c:f>Sheet1!$C$2:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1362,6 +1377,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1827,10 +1845,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1911,16 +1929,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$28</c:f>
+              <c:f>Sheet1!$D$2:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2001,6 +2022,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2122,10 +2146,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2206,16 +2230,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$28</c:f>
+              <c:f>Sheet1!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2295,6 +2322,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2735,10 +2765,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$28</c:f>
+              <c:f>Sheet1!$A$2:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2819,16 +2849,19 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$28</c:f>
+              <c:f>Sheet1!$H$2:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2909,6 +2942,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5721,9 +5757,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -6523,11 +6559,11 @@
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28" si="6">D27+B28</f>
+        <f>D27+B28</f>
         <v>568</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" ref="E28" si="7">E27+C28</f>
+        <f>E27+C28</f>
         <v>235</v>
       </c>
       <c r="F28" s="1">
@@ -6538,8 +6574,38 @@
         <v>175</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" ref="H28" si="8">D28-G28</f>
+        <f>D28-G28</f>
         <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <f>D28+B29</f>
+        <v>569</v>
+      </c>
+      <c r="E29" s="1">
+        <f>E28+C29</f>
+        <v>235</v>
+      </c>
+      <c r="F29" s="1">
+        <v>27</v>
+      </c>
+      <c r="G29" s="1">
+        <f>G28+F29</f>
+        <v>202</v>
+      </c>
+      <c r="H29" s="5">
+        <f>D29-G29</f>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B6D916-E4A4-4FBE-B9AD-5F8D1E54470D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6861575-51AA-4478-9D98-807F8C53F6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -429,16 +429,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44432</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:f>Sheet1!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -522,6 +525,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -920,10 +926,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1007,16 +1013,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44432</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$29</c:f>
+              <c:f>Sheet1!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1100,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,10 +1213,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1288,16 +1300,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44432</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$29</c:f>
+              <c:f>Sheet1!$C$2:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1380,6 +1395,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1845,10 +1863,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1932,16 +1950,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44432</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$29</c:f>
+              <c:f>Sheet1!$D$2:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2024,6 +2045,9 @@
                   <c:v>568</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>569</c:v>
                 </c:pt>
               </c:numCache>
@@ -2146,10 +2170,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2233,16 +2257,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44432</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$29</c:f>
+              <c:f>Sheet1!$E$2:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2325,6 +2352,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2765,10 +2795,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$29</c:f>
+              <c:f>Sheet1!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2852,16 +2882,19 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44432</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$29</c:f>
+              <c:f>Sheet1!$H$2:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2945,6 +2978,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5757,10 +5793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6450,7 +6486,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="1">
-        <f>G23+F24</f>
+        <f t="shared" ref="G24:G29" si="5">G23+F24</f>
         <v>70</v>
       </c>
       <c r="H24" s="5">
@@ -6480,7 +6516,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="1">
-        <f>G24+F25</f>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="H25" s="5">
@@ -6510,7 +6546,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="1">
-        <f>G25+F26</f>
+        <f t="shared" si="5"/>
         <v>113</v>
       </c>
       <c r="H26" s="5">
@@ -6540,11 +6576,11 @@
         <v>27</v>
       </c>
       <c r="G27" s="1">
-        <f>G26+F27</f>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" ref="H27" si="5">D27-G27</f>
+        <f t="shared" ref="H27" si="6">D27-G27</f>
         <v>428</v>
       </c>
     </row>
@@ -6570,7 +6606,7 @@
         <v>35</v>
       </c>
       <c r="G28" s="1">
-        <f>G27+F28</f>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="H28" s="5">
@@ -6600,12 +6636,42 @@
         <v>27</v>
       </c>
       <c r="G29" s="1">
-        <f>G28+F29</f>
+        <f t="shared" si="5"/>
         <v>202</v>
       </c>
       <c r="H29" s="5">
         <f>D29-G29</f>
         <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>44433</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <f>D29+B30</f>
+        <v>569</v>
+      </c>
+      <c r="E30" s="1">
+        <f>E29+C30</f>
+        <v>235</v>
+      </c>
+      <c r="F30" s="1">
+        <v>36</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ref="G30" si="7">G29+F30</f>
+        <v>238</v>
+      </c>
+      <c r="H30" s="5">
+        <f>D30-G30</f>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6861575-51AA-4478-9D98-807F8C53F6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B478FA-DF11-43D4-8090-6A3993B29CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -432,16 +432,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$30</c:f>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -528,6 +531,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,10 +932,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1016,16 +1022,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$30</c:f>
+              <c:f>Sheet1!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1112,6 +1121,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,10 +1225,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1303,16 +1315,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$30</c:f>
+              <c:f>Sheet1!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1398,6 +1413,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1863,10 +1881,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1953,16 +1971,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$30</c:f>
+              <c:f>Sheet1!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2049,6 +2070,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,10 +2194,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2260,16 +2284,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$30</c:f>
+              <c:f>Sheet1!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2355,6 +2382,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2795,10 +2825,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>Sheet1!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2885,16 +2915,19 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44433</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$30</c:f>
+              <c:f>Sheet1!$H$2:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2981,6 +3014,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5344,15 +5380,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187290</xdr:colOff>
+      <xdr:colOff>187285</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>427260</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>245250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>235733</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154652</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5364,7 +5400,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5381,16 +5417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>187290</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>492085</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>427260</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>216683</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154652</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5402,7 +5438,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5419,16 +5455,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>191341</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485313</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>431311</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209911</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>226034</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5440,7 +5476,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5458,15 +5494,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>196814</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:colOff>196376</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>436784</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>235725</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>244824</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5478,7 +5514,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5793,10 +5829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6595,11 +6631,11 @@
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <f>D27+B28</f>
+        <f t="shared" ref="D28:E30" si="7">D27+B28</f>
         <v>568</v>
       </c>
       <c r="E28" s="1">
-        <f>E27+C28</f>
+        <f t="shared" si="7"/>
         <v>235</v>
       </c>
       <c r="F28" s="1">
@@ -6625,11 +6661,11 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <f>D28+B29</f>
+        <f t="shared" si="7"/>
         <v>569</v>
       </c>
       <c r="E29" s="1">
-        <f>E28+C29</f>
+        <f t="shared" si="7"/>
         <v>235</v>
       </c>
       <c r="F29" s="1">
@@ -6655,23 +6691,53 @@
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <f>D29+B30</f>
+        <f t="shared" si="7"/>
         <v>569</v>
       </c>
       <c r="E30" s="1">
-        <f>E29+C30</f>
+        <f t="shared" si="7"/>
         <v>235</v>
       </c>
       <c r="F30" s="1">
         <v>36</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" ref="G30" si="7">G29+F30</f>
+        <f t="shared" ref="G30" si="8">G29+F30</f>
         <v>238</v>
       </c>
       <c r="H30" s="5">
         <f>D30-G30</f>
         <v>331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>44434</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31" si="9">D30+B31</f>
+        <v>570</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ref="E31" si="10">E30+C31</f>
+        <v>235</v>
+      </c>
+      <c r="F31" s="1">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ref="G31" si="11">G30+F31</f>
+        <v>258</v>
+      </c>
+      <c r="H31" s="5">
+        <f>D31-G31</f>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B478FA-DF11-43D4-8090-6A3993B29CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D14645F-D1DA-4A8A-8611-8B39D3AD625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -342,10 +342,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -435,16 +435,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>Sheet1!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -534,6 +537,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,10 +938,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1025,16 +1031,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$31</c:f>
+              <c:f>Sheet1!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1124,6 +1133,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1225,10 +1237,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1318,16 +1330,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$31</c:f>
+              <c:f>Sheet1!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1416,6 +1431,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1881,10 +1899,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1974,16 +1992,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$31</c:f>
+              <c:f>Sheet1!$D$2:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2072,6 +2093,9 @@
                   <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2194,10 +2218,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2287,16 +2311,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$31</c:f>
+              <c:f>Sheet1!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2385,6 +2412,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2825,10 +2855,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$31</c:f>
+              <c:f>Sheet1!$A$2:$A$32</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2918,16 +2948,19 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>44434</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$31</c:f>
+              <c:f>Sheet1!$H$2:$H$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3017,6 +3050,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5829,10 +5865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6738,6 +6774,36 @@
       <c r="H31" s="5">
         <f>D31-G31</f>
         <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>44435</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ref="D32" si="12">D31+B32</f>
+        <v>570</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ref="E32" si="13">E31+C32</f>
+        <v>235</v>
+      </c>
+      <c r="F32" s="1">
+        <v>38</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ref="G32" si="14">G31+F32</f>
+        <v>296</v>
+      </c>
+      <c r="H32" s="5">
+        <f>D32-G32</f>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D14645F-D1DA-4A8A-8611-8B39D3AD625B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB05ED44-9188-45A9-B8AC-9F93DB8B7813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -342,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -438,16 +437,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -539,6 +541,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -938,10 +943,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1034,16 +1039,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$32</c:f>
+              <c:f>Sheet1!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1135,6 +1143,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1237,10 +1248,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1333,16 +1344,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$32</c:f>
+              <c:f>Sheet1!$C$2:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1434,6 +1448,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1899,10 +1916,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1995,16 +2012,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$32</c:f>
+              <c:f>Sheet1!$D$2:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2096,6 +2116,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2218,10 +2241,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2314,16 +2337,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$32</c:f>
+              <c:f>Sheet1!$E$2:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2415,6 +2441,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2855,10 +2884,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$32</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2951,16 +2980,19 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$32</c:f>
+              <c:f>Sheet1!$H$2:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3053,6 +3085,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5416,15 +5451,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187285</xdr:colOff>
+      <xdr:colOff>187284</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>235733</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154652</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>40919</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5454,15 +5489,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>492085</xdr:colOff>
+      <xdr:colOff>492084</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>216683</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>154652</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>20484</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5492,15 +5527,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>485313</xdr:colOff>
+      <xdr:colOff>485312</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>71384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>209911</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>226034</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>41204</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5530,15 +5565,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>196376</xdr:colOff>
+      <xdr:colOff>196374</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95679</xdr:rowOff>
+      <xdr:rowOff>95678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>244824</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>2679</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>55152</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>32138</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5865,10 +5900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6806,25 +6841,40 @@
         <v>274</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>44436</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ref="D33" si="15">D32+B33</f>
+        <v>570</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" ref="E33" si="16">E32+C33</f>
+        <v>235</v>
+      </c>
+      <c r="F33" s="1">
+        <v>36</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ref="G33" si="17">G32+F33</f>
+        <v>332</v>
+      </c>
+      <c r="H33" s="5">
+        <f>D33-G33</f>
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A3768E-1F70-465C-B0AD-6184F2568EB5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB05ED44-9188-45A9-B8AC-9F93DB8B7813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42E3B63-A798-4678-AFDD-7442FC1B77A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -440,16 +440,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44436</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$33</c:f>
+              <c:f>Sheet1!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -544,6 +547,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -943,10 +949,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1042,16 +1048,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44436</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$33</c:f>
+              <c:f>Sheet1!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1146,6 +1155,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1248,10 +1260,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1347,16 +1359,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44436</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$33</c:f>
+              <c:f>Sheet1!$C$2:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1451,6 +1466,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1916,10 +1934,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2015,16 +2033,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44436</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$33</c:f>
+              <c:f>Sheet1!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2119,6 +2140,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2241,10 +2265,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2340,16 +2364,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44436</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$33</c:f>
+              <c:f>Sheet1!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2444,6 +2471,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2884,10 +2914,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$33</c:f>
+              <c:f>Sheet1!$A$2:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2983,16 +3013,19 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44436</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$33</c:f>
+              <c:f>Sheet1!$H$2:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3088,6 +3121,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5900,10 +5936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6717,7 +6753,7 @@
         <v>175</v>
       </c>
       <c r="H28" s="5">
-        <f>D28-G28</f>
+        <f t="shared" ref="H28:H33" si="8">D28-G28</f>
         <v>393</v>
       </c>
     </row>
@@ -6747,7 +6783,7 @@
         <v>202</v>
       </c>
       <c r="H29" s="5">
-        <f>D29-G29</f>
+        <f t="shared" si="8"/>
         <v>367</v>
       </c>
     </row>
@@ -6773,11 +6809,11 @@
         <v>36</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" ref="G30" si="8">G29+F30</f>
+        <f t="shared" ref="G30" si="9">G29+F30</f>
         <v>238</v>
       </c>
       <c r="H30" s="5">
-        <f>D30-G30</f>
+        <f t="shared" si="8"/>
         <v>331</v>
       </c>
     </row>
@@ -6792,22 +6828,22 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" ref="D31" si="9">D30+B31</f>
+        <f t="shared" ref="D31" si="10">D30+B31</f>
         <v>570</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" ref="E31" si="10">E30+C31</f>
+        <f t="shared" ref="E31" si="11">E30+C31</f>
         <v>235</v>
       </c>
       <c r="F31" s="1">
         <v>20</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" ref="G31" si="11">G30+F31</f>
+        <f t="shared" ref="G31" si="12">G30+F31</f>
         <v>258</v>
       </c>
       <c r="H31" s="5">
-        <f>D31-G31</f>
+        <f t="shared" si="8"/>
         <v>312</v>
       </c>
     </row>
@@ -6822,22 +6858,22 @@
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32" si="12">D31+B32</f>
+        <f t="shared" ref="D32" si="13">D31+B32</f>
         <v>570</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" ref="E32" si="13">E31+C32</f>
+        <f t="shared" ref="E32" si="14">E31+C32</f>
         <v>235</v>
       </c>
       <c r="F32" s="1">
         <v>38</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" ref="G32" si="14">G31+F32</f>
+        <f t="shared" ref="G32" si="15">G31+F32</f>
         <v>296</v>
       </c>
       <c r="H32" s="5">
-        <f>D32-G32</f>
+        <f t="shared" si="8"/>
         <v>274</v>
       </c>
     </row>
@@ -6852,23 +6888,53 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ref="D33" si="15">D32+B33</f>
+        <f t="shared" ref="D33" si="16">D32+B33</f>
         <v>570</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" ref="E33" si="16">E32+C33</f>
+        <f t="shared" ref="E33" si="17">E32+C33</f>
         <v>235</v>
       </c>
       <c r="F33" s="1">
         <v>36</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" ref="G33" si="17">G32+F33</f>
+        <f t="shared" ref="G33" si="18">G32+F33</f>
         <v>332</v>
       </c>
       <c r="H33" s="5">
-        <f>D33-G33</f>
+        <f t="shared" si="8"/>
         <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>44437</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" ref="D34" si="19">D33+B34</f>
+        <v>570</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" ref="E34" si="20">E33+C34</f>
+        <v>235</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34" si="21">G33+F34</f>
+        <v>377</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" ref="H34" si="22">D34-G34</f>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42E3B63-A798-4678-AFDD-7442FC1B77A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6979D589-E41A-4DD7-A276-209079F1C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -443,16 +443,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44437</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$34</c:f>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -550,6 +553,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -949,10 +955,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1051,16 +1057,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44437</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$34</c:f>
+              <c:f>Sheet1!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1158,6 +1167,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1260,10 +1272,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1362,16 +1374,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44437</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$34</c:f>
+              <c:f>Sheet1!$C$2:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1469,6 +1484,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1934,10 +1952,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2036,16 +2054,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44437</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$34</c:f>
+              <c:f>Sheet1!$D$2:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2143,6 +2164,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2265,10 +2289,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2367,16 +2391,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44437</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$34</c:f>
+              <c:f>Sheet1!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2474,6 +2501,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2914,10 +2944,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$34</c:f>
+              <c:f>Sheet1!$A$2:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3016,16 +3046,19 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>44437</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$34</c:f>
+              <c:f>Sheet1!$H$2:$H$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3124,6 +3157,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5493,9 +5529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>40919</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>181390</xdr:rowOff>
+      <xdr:colOff>317081</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90369</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5525,15 +5561,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>492084</xdr:colOff>
+      <xdr:colOff>492085</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>20484</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>181390</xdr:rowOff>
+      <xdr:colOff>297283</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90369</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5563,15 +5599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>485312</xdr:colOff>
+      <xdr:colOff>485310</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>71384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>41204</xdr:colOff>
+      <xdr:colOff>318825</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>23269</xdr:rowOff>
+      <xdr:rowOff>174570</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5601,15 +5637,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>196374</xdr:colOff>
+      <xdr:colOff>196375</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>95678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>55152</xdr:colOff>
+      <xdr:colOff>331471</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>32138</xdr:rowOff>
+      <xdr:rowOff>182978</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5936,10 +5972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -6937,6 +6973,36 @@
         <v>193</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>44438</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35" si="23">D34+B35</f>
+        <v>570</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ref="E35" si="24">E34+C35</f>
+        <v>235</v>
+      </c>
+      <c r="F35" s="1">
+        <v>50</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ref="G35" si="25">G34+F35</f>
+        <v>427</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" ref="H35" si="26">D35-G35</f>
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6979D589-E41A-4DD7-A276-209079F1C0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32607BEC-6E27-489F-8B20-0C6C3298D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -446,16 +446,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -556,6 +559,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -955,10 +961,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1060,16 +1066,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$35</c:f>
+              <c:f>Sheet1!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1170,6 +1179,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1272,10 +1284,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1377,16 +1389,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$35</c:f>
+              <c:f>Sheet1!$C$2:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1487,6 +1502,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1952,10 +1970,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2057,16 +2075,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$35</c:f>
+              <c:f>Sheet1!$D$2:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2167,6 +2188,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2289,10 +2313,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2394,16 +2418,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$35</c:f>
+              <c:f>Sheet1!$E$2:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2504,6 +2531,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2944,10 +2974,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$35</c:f>
+              <c:f>Sheet1!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3049,16 +3079,19 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$35</c:f>
+              <c:f>Sheet1!$H$2:$H$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3160,6 +3193,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5523,15 +5559,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187284</xdr:colOff>
+      <xdr:colOff>187283</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>317081</xdr:colOff>
+      <xdr:colOff>506712</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>90369</xdr:rowOff>
+      <xdr:rowOff>194354</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5561,15 +5597,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>492085</xdr:colOff>
+      <xdr:colOff>665265</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>297283</xdr:colOff>
+      <xdr:colOff>660530</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>90369</xdr:rowOff>
+      <xdr:rowOff>194354</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5599,15 +5635,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>485310</xdr:colOff>
+      <xdr:colOff>658490</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>71384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>318825</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>174570</xdr:rowOff>
+      <xdr:colOff>682639</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>36011</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5643,9 +5679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>331471</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>182978</xdr:rowOff>
+      <xdr:colOff>521209</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>44101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5972,10 +6008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7003,6 +7039,36 @@
         <v>143</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" ref="D36" si="27">D35+B36</f>
+        <v>570</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ref="E36" si="28">E35+C36</f>
+        <v>235</v>
+      </c>
+      <c r="F36" s="1">
+        <v>39</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ref="G36" si="29">G35+F36</f>
+        <v>466</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" ref="H36" si="30">D36-G36</f>
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32607BEC-6E27-489F-8B20-0C6C3298D676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1973DD26-85C0-4140-B3EB-A85AA5F51A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -449,16 +449,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$36</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -562,6 +565,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -961,10 +967,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1069,16 +1075,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$36</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1182,6 +1191,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1284,10 +1296,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1392,16 +1404,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$36</c:f>
+              <c:f>Sheet1!$C$2:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1505,6 +1520,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1970,10 +1988,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2078,16 +2096,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$36</c:f>
+              <c:f>Sheet1!$D$2:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2191,6 +2212,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2313,10 +2337,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2421,16 +2445,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$36</c:f>
+              <c:f>Sheet1!$E$2:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2534,6 +2561,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -2974,10 +3004,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$36</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3082,16 +3112,19 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>44439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$36</c:f>
+              <c:f>Sheet1!$H$2:$H$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3196,6 +3229,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5559,15 +5595,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187283</xdr:colOff>
+      <xdr:colOff>187282</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>506712</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>194354</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>105623</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111169</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5596,16 +5632,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>665265</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>176023</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>660530</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>194354</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>463727</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111169</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5634,16 +5670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>658490</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>193059</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>71384</xdr:rowOff>
+      <xdr:rowOff>157973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>682639</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>36011</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>510520</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>43540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5673,15 +5709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>196375</xdr:colOff>
+      <xdr:colOff>196373</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95678</xdr:rowOff>
+      <xdr:rowOff>182268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>521209</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44101</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>120283</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>51142</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6008,10 +6044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7069,6 +7105,36 @@
         <v>104</v>
       </c>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37" si="31">D36+B37</f>
+        <v>570</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37" si="32">E36+C37</f>
+        <v>235</v>
+      </c>
+      <c r="F37" s="1">
+        <v>21</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ref="G37" si="33">G36+F37</f>
+        <v>487</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" ref="H37" si="34">D37-G37</f>
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1973DD26-85C0-4140-B3EB-A85AA5F51A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF29BE1E-2917-41D6-895D-AD2B2E6F25B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -452,16 +452,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -568,6 +571,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -967,10 +973,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1078,16 +1084,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1194,6 +1203,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1296,10 +1308,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1407,16 +1419,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$37</c:f>
+              <c:f>Sheet1!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1523,6 +1538,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1988,10 +2006,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2099,16 +2117,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$37</c:f>
+              <c:f>Sheet1!$D$2:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2215,6 +2236,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2337,10 +2361,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2448,16 +2472,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$37</c:f>
+              <c:f>Sheet1!$E$2:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2564,6 +2591,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3004,10 +3034,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3115,16 +3145,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$37</c:f>
+              <c:f>Sheet1!$H$2:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3232,6 +3265,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5595,15 +5631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187282</xdr:colOff>
+      <xdr:colOff>187281</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>105623</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>111169</xdr:rowOff>
+      <xdr:colOff>498596</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5633,15 +5669,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>176023</xdr:colOff>
+      <xdr:colOff>625053</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>463727</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>111169</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>624909</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86225</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5671,15 +5707,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>193059</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>157973</xdr:rowOff>
+      <xdr:colOff>642089</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>510520</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>43540</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>672891</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>32972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5709,15 +5745,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>196373</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>182268</xdr:rowOff>
+      <xdr:colOff>196372</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>120283</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>51142</xdr:rowOff>
+      <xdr:colOff>513480</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12693</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6044,10 +6080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7135,6 +7171,36 @@
         <v>83</v>
       </c>
     </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>44441</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" ref="D38" si="35">D37+B38</f>
+        <v>570</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" ref="E38" si="36">E37+C38</f>
+        <v>235</v>
+      </c>
+      <c r="F38" s="1">
+        <v>21</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ref="G38" si="37">G37+F38</f>
+        <v>508</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" ref="H38" si="38">D38-G38</f>
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF29BE1E-2917-41D6-895D-AD2B2E6F25B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93D8261-DAD9-4105-918F-87496558DFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -455,16 +455,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>Sheet1!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -574,6 +577,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -973,10 +979,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1087,16 +1093,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>Sheet1!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1206,6 +1215,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1308,10 +1320,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1422,16 +1434,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$38</c:f>
+              <c:f>Sheet1!$C$2:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1541,6 +1556,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2006,10 +2024,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2120,16 +2138,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$38</c:f>
+              <c:f>Sheet1!$D$2:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2239,6 +2260,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2361,10 +2385,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2475,16 +2499,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$38</c:f>
+              <c:f>Sheet1!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2594,6 +2621,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3034,10 +3064,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$38</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3148,16 +3178,19 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>44441</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$38</c:f>
+              <c:f>Sheet1!$H$2:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3268,6 +3301,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5637,9 +5673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>498596</xdr:colOff>
+      <xdr:colOff>602155</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>86225</xdr:rowOff>
+      <xdr:rowOff>143025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5668,16 +5704,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>625053</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>18915</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>624909</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>122680</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>86225</xdr:rowOff>
+      <xdr:rowOff>143025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5706,16 +5742,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>642089</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171577</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>35951</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>672891</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>170971</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>32972</xdr:rowOff>
+      <xdr:rowOff>176365</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5745,15 +5781,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>196372</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>168658</xdr:rowOff>
+      <xdr:colOff>196371</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>513480</xdr:colOff>
+      <xdr:colOff>617096</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>12693</xdr:rowOff>
+      <xdr:rowOff>155912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6080,10 +6116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7201,6 +7237,36 @@
         <v>62</v>
       </c>
     </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" ref="D39" si="39">D38+B39</f>
+        <v>570</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" ref="E39" si="40">E38+C39</f>
+        <v>235</v>
+      </c>
+      <c r="F39" s="1">
+        <v>18</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ref="G39" si="41">G38+F39</f>
+        <v>526</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" ref="H39" si="42">D39-G39</f>
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93D8261-DAD9-4105-918F-87496558DFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA431C1F-8ACF-4CF4-94EA-A158B22E19C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -458,16 +458,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$39</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -580,6 +583,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -979,10 +985,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1096,16 +1102,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$39</c:f>
+              <c:f>Sheet1!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1218,6 +1227,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1320,10 +1332,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1437,16 +1449,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$39</c:f>
+              <c:f>Sheet1!$C$2:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1559,6 +1574,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2024,10 +2042,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2141,16 +2159,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$39</c:f>
+              <c:f>Sheet1!$D$2:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2263,6 +2284,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2385,10 +2409,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2502,16 +2526,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$39</c:f>
+              <c:f>Sheet1!$E$2:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2624,6 +2651,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3064,10 +3094,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:f>Sheet1!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3181,16 +3211,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$39</c:f>
+              <c:f>Sheet1!$H$2:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3304,6 +3337,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5667,15 +5703,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187281</xdr:colOff>
+      <xdr:colOff>187280</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>602155</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>143025</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>224075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5705,15 +5741,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>18915</xdr:colOff>
+      <xdr:colOff>352283</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>122680</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>143025</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>79351</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5743,15 +5779,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>35951</xdr:colOff>
+      <xdr:colOff>369317</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>15713</xdr:rowOff>
+      <xdr:rowOff>182396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>170971</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>176365</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>128579</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>35924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5783,13 +5819,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>196371</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>12794</xdr:rowOff>
+      <xdr:rowOff>179478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>617096</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>155912</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>239193</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>14946</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6116,10 +6152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7267,6 +7303,36 @@
         <v>44</v>
       </c>
     </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>44443</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" ref="D40" si="43">D39+B40</f>
+        <v>570</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" ref="E40" si="44">E39+C40</f>
+        <v>235</v>
+      </c>
+      <c r="F40" s="1">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ref="G40" si="45">G39+F40</f>
+        <v>537</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" ref="H40" si="46">D40-G40</f>
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA431C1F-8ACF-4CF4-94EA-A158B22E19C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EA82A8-9D45-4C20-9C10-C84F915B0C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -461,16 +461,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44443</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -586,6 +589,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -985,10 +991,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1105,16 +1111,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44443</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1230,6 +1239,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1332,10 +1344,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1452,16 +1464,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44443</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$40</c:f>
+              <c:f>Sheet1!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1577,6 +1592,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2042,10 +2060,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2162,16 +2180,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44443</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$40</c:f>
+              <c:f>Sheet1!$D$2:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2287,6 +2308,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2409,10 +2433,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2529,16 +2553,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44443</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$40</c:f>
+              <c:f>Sheet1!$E$2:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2654,6 +2681,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3094,10 +3124,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3214,16 +3244,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44443</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$40</c:f>
+              <c:f>Sheet1!$H$2:$H$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3340,6 +3373,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5703,15 +5739,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187280</xdr:colOff>
+      <xdr:colOff>187278</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>224075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>74210</xdr:rowOff>
+      <xdr:colOff>544644</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7094</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5741,15 +5777,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>352283</xdr:colOff>
+      <xdr:colOff>580883</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>79351</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>74210</xdr:rowOff>
+      <xdr:colOff>628946</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7094</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5779,15 +5815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>369317</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>182396</xdr:rowOff>
+      <xdr:colOff>597917</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>128579</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>35924</xdr:rowOff>
+      <xdr:colOff>679140</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>83917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5817,15 +5853,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>196371</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>179478</xdr:rowOff>
+      <xdr:colOff>196370</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>239193</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>14946</xdr:rowOff>
+      <xdr:colOff>559944</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>62396</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6152,10 +6188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7333,6 +7369,36 @@
         <v>33</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>44444</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ref="D41" si="47">D40+B41</f>
+        <v>570</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" ref="E41" si="48">E40+C41</f>
+        <v>235</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ref="G41" si="49">G40+F41</f>
+        <v>544</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" ref="H41" si="50">D41-G41</f>
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EA82A8-9D45-4C20-9C10-C84F915B0C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6321F6E4-0700-4089-948F-C13DFCB4C2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -464,16 +464,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44444</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$41</c:f>
+              <c:f>Sheet1!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -592,6 +595,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -991,10 +997,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1114,16 +1120,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44444</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$41</c:f>
+              <c:f>Sheet1!$B$2:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1242,6 +1251,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1344,10 +1356,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1467,16 +1479,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44444</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$41</c:f>
+              <c:f>Sheet1!$C$2:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1595,6 +1610,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2060,10 +2078,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2183,16 +2201,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44444</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$41</c:f>
+              <c:f>Sheet1!$D$2:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2311,6 +2332,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2433,10 +2457,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2556,16 +2580,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44444</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$41</c:f>
+              <c:f>Sheet1!$E$2:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2684,6 +2711,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3124,10 +3154,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$41</c:f>
+              <c:f>Sheet1!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3247,16 +3277,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>44444</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$41</c:f>
+              <c:f>Sheet1!$H$2:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3376,6 +3409,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5744,10 +5780,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>544644</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>78971</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>7094</xdr:rowOff>
+      <xdr:rowOff>131061</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5776,16 +5812,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>580883</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133207</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>628946</xdr:colOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>401688</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>7094</xdr:rowOff>
+      <xdr:rowOff>131061</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5814,16 +5850,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>597917</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>150241</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>49046</xdr:rowOff>
+      <xdr:rowOff>182395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>679140</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>83917</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>452545</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>94138</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5855,13 +5891,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>196370</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>46127</xdr:rowOff>
+      <xdr:rowOff>179476</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>559944</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>62396</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>94395</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>72245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6188,7 +6224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
@@ -7399,6 +7435,36 @@
         <v>26</v>
       </c>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>44445</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" ref="D42" si="51">D41+B42</f>
+        <v>570</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" ref="E42" si="52">E41+C42</f>
+        <v>235</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ref="G42" si="53">G41+F42</f>
+        <v>549</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" ref="H42" si="54">D42-G42</f>
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6321F6E4-0700-4089-948F-C13DFCB4C2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A5FAF3-18DA-4F28-9A05-EBC4BDFCFF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -467,16 +467,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$42</c:f>
+              <c:f>Sheet1!$B$2:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -598,6 +601,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -997,10 +1003,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1123,16 +1129,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$42</c:f>
+              <c:f>Sheet1!$B$2:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1254,6 +1263,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1356,10 +1368,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1482,16 +1494,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$42</c:f>
+              <c:f>Sheet1!$C$2:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1613,6 +1628,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2078,10 +2096,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2204,16 +2222,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$42</c:f>
+              <c:f>Sheet1!$D$2:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2335,6 +2356,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2457,10 +2481,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2583,16 +2607,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$42</c:f>
+              <c:f>Sheet1!$E$2:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2714,6 +2741,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3154,10 +3184,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$42</c:f>
+              <c:f>Sheet1!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3280,16 +3310,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$42</c:f>
+              <c:f>Sheet1!$H$2:$H$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3412,6 +3445,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5781,9 +5817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>78971</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>131061</xdr:rowOff>
+      <xdr:colOff>413723</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5813,15 +5849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>133207</xdr:colOff>
+      <xdr:colOff>500595</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>401688</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>131061</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>423344</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>73760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5851,15 +5887,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>150241</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>182395</xdr:rowOff>
+      <xdr:colOff>517630</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>452545</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>94138</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>475217</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>23996</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5889,15 +5925,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>196370</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>179476</xdr:rowOff>
+      <xdr:colOff>196368</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>94395</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>72245</xdr:rowOff>
+      <xdr:colOff>429334</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1533</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6224,10 +6260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7465,6 +7501,36 @@
         <v>21</v>
       </c>
     </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>44446</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43" si="55">D42+B43</f>
+        <v>570</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" ref="E43" si="56">E42+C43</f>
+        <v>235</v>
+      </c>
+      <c r="F43" s="1">
+        <v>8</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ref="G43" si="57">G42+F43</f>
+        <v>557</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" ref="H43" si="58">D43-G43</f>
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A5FAF3-18DA-4F28-9A05-EBC4BDFCFF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B163442-F4A3-4971-A5E3-8C0D4A81C086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -470,16 +470,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44446</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$43</c:f>
+              <c:f>Sheet1!$B$2:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -604,6 +607,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1003,10 +1009,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1132,16 +1138,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44446</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$43</c:f>
+              <c:f>Sheet1!$B$2:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1266,6 +1275,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1368,10 +1380,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1497,16 +1509,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44446</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$43</c:f>
+              <c:f>Sheet1!$C$2:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1631,6 +1646,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2096,10 +2114,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2225,16 +2243,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44446</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$43</c:f>
+              <c:f>Sheet1!$D$2:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2359,6 +2380,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2481,10 +2505,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2610,16 +2634,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44446</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$43</c:f>
+              <c:f>Sheet1!$E$2:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2744,6 +2771,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3184,10 +3214,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$43</c:f>
+              <c:f>Sheet1!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3313,16 +3343,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>44446</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$43</c:f>
+              <c:f>Sheet1!$H$2:$H$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3448,6 +3481,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5817,9 +5853,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>413723</xdr:colOff>
+      <xdr:colOff>645902</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:rowOff>199536</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5848,16 +5884,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>500595</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>71965</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>423344</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>227964</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>73760</xdr:rowOff>
+      <xdr:rowOff>199536</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5886,16 +5922,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>517630</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>168784</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>89001</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>73531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>475217</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>23996</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>280535</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>54436</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5926,14 +5962,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>196368</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>165865</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>70611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>429334</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1533</xdr:rowOff>
+      <xdr:colOff>661642</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>31581</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6260,10 +6296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7531,6 +7567,36 @@
         <v>13</v>
       </c>
     </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>44447</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" ref="D44" si="59">D43+B44</f>
+        <v>570</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" ref="E44" si="60">E43+C44</f>
+        <v>235</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ref="G44" si="61">G43+F44</f>
+        <v>562</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" ref="H44" si="62">D44-G44</f>
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B163442-F4A3-4971-A5E3-8C0D4A81C086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D01257-93D4-4D14-9C1B-130D1AAC505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -473,16 +473,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$44</c:f>
+              <c:f>Sheet1!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -610,6 +613,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1009,10 +1015,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1141,16 +1147,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$44</c:f>
+              <c:f>Sheet1!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1278,6 +1287,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1380,10 +1392,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1512,16 +1524,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$44</c:f>
+              <c:f>Sheet1!$C$2:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1649,6 +1664,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2114,10 +2132,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2246,16 +2264,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$44</c:f>
+              <c:f>Sheet1!$D$2:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2383,6 +2404,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2505,10 +2529,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2637,16 +2661,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$44</c:f>
+              <c:f>Sheet1!$E$2:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2774,6 +2801,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3214,10 +3244,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$44</c:f>
+              <c:f>Sheet1!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3346,16 +3376,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44447</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$44</c:f>
+              <c:f>Sheet1!$H$2:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3484,6 +3517,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5852,10 +5888,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>645902</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>199536</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>195969</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>84654</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5885,15 +5921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>71965</xdr:colOff>
+      <xdr:colOff>243414</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>227964</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>199536</xdr:rowOff>
+      <xdr:colOff>635704</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>84654</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5923,15 +5959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>89001</xdr:colOff>
+      <xdr:colOff>260450</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>73531</xdr:rowOff>
+      <xdr:rowOff>149730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>280535</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>54436</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>3186</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>16334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5963,13 +5999,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>196368</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>70611</xdr:rowOff>
+      <xdr:rowOff>146810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>661642</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>211841</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>31581</xdr:rowOff>
+      <xdr:rowOff>240730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6296,10 +6332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7597,6 +7633,36 @@
         <v>8</v>
       </c>
     </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44448</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" ref="D45" si="63">D44+B45</f>
+        <v>570</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" ref="E45" si="64">E44+C45</f>
+        <v>235</v>
+      </c>
+      <c r="F45" s="1">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ref="G45" si="65">G44+F45</f>
+        <v>565</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" ref="H45" si="66">D45-G45</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D01257-93D4-4D14-9C1B-130D1AAC505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171FE5FC-008B-4A83-8856-877FC7E3AD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -476,16 +476,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$45</c:f>
+              <c:f>Sheet1!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -616,6 +619,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1015,10 +1021,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1150,16 +1156,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$45</c:f>
+              <c:f>Sheet1!$B$2:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1290,6 +1299,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1392,10 +1404,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1527,16 +1539,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$45</c:f>
+              <c:f>Sheet1!$C$2:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1667,6 +1682,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2132,10 +2150,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2267,16 +2285,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$45</c:f>
+              <c:f>Sheet1!$D$2:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2407,6 +2428,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2529,10 +2553,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2664,16 +2688,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$45</c:f>
+              <c:f>Sheet1!$E$2:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2804,6 +2831,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3244,10 +3274,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$45</c:f>
+              <c:f>Sheet1!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3379,16 +3409,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$45</c:f>
+              <c:f>Sheet1!$H$2:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3520,6 +3553,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5889,9 +5925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>195969</xdr:colOff>
+      <xdr:colOff>436553</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>84654</xdr:rowOff>
+      <xdr:rowOff>220078</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5921,15 +5957,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>243414</xdr:colOff>
+      <xdr:colOff>510113</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>635704</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>457621</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>84654</xdr:rowOff>
+      <xdr:rowOff>220078</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5959,15 +5995,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>260450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>149730</xdr:rowOff>
+      <xdr:colOff>527149</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>3186</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>16334</xdr:rowOff>
+      <xdr:colOff>511627</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5998,14 +6034,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>196368</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146810</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>32509</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>211841</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>240730</xdr:rowOff>
+      <xdr:colOff>452561</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>14389</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6332,10 +6368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7663,6 +7699,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>44449</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" ref="D46" si="67">D45+B46</f>
+        <v>570</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" ref="E46" si="68">E45+C46</f>
+        <v>235</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" ref="G46" si="69">G45+F46</f>
+        <v>568</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" ref="H46" si="70">D46-G46</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171FE5FC-008B-4A83-8856-877FC7E3AD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07CAD90-E35B-4E34-9FAD-E1756F45B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>Sheet1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -479,16 +479,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44449</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$46</c:f>
+              <c:f>Sheet1!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -622,6 +625,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1021,10 +1027,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>Sheet1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1159,16 +1165,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44449</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$46</c:f>
+              <c:f>Sheet1!$B$2:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1302,6 +1311,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1404,10 +1416,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>Sheet1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1542,16 +1554,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44449</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$46</c:f>
+              <c:f>Sheet1!$C$2:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1685,6 +1700,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2150,10 +2168,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>Sheet1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2288,16 +2306,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44449</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$46</c:f>
+              <c:f>Sheet1!$D$2:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2431,6 +2452,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2553,10 +2577,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>Sheet1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2691,16 +2715,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44449</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$46</c:f>
+              <c:f>Sheet1!$E$2:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2834,6 +2861,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3274,10 +3304,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$46</c:f>
+              <c:f>Sheet1!$A$2:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3412,16 +3442,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44449</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$46</c:f>
+              <c:f>Sheet1!$H$2:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3555,6 +3588,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5919,15 +5955,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187278</xdr:colOff>
+      <xdr:colOff>187277</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>436553</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>220078</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>118848</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179627</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5956,16 +5992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>510113</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>167212</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>457621</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>220078</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>483478</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179627</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5994,16 +6030,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>527149</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>184248</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>35430</xdr:rowOff>
+      <xdr:rowOff>225930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>511627</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>38050</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>538594</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>189005</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6033,15 +6069,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>196368</xdr:colOff>
+      <xdr:colOff>196367</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>32509</xdr:rowOff>
+      <xdr:rowOff>223008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>452561</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>14389</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>135063</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>164721</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6368,10 +6404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7729,6 +7765,36 @@
         <v>2</v>
       </c>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>44450</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" ref="D47" si="71">D46+B47</f>
+        <v>570</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" ref="E47" si="72">E46+C47</f>
+        <v>235</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ref="G47" si="73">G46+F47</f>
+        <v>568</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" ref="H47" si="74">D47-G47</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07CAD90-E35B-4E34-9FAD-E1756F45B97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55458FFD-AABF-4313-BCD4-CBBD17797B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$47</c:f>
+              <c:f>Sheet1!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -482,16 +482,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$47</c:f>
+              <c:f>Sheet1!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -628,6 +631,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1027,10 +1033,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$47</c:f>
+              <c:f>Sheet1!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1168,16 +1174,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$47</c:f>
+              <c:f>Sheet1!$B$2:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1314,6 +1323,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1416,10 +1428,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$47</c:f>
+              <c:f>Sheet1!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1557,16 +1569,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$47</c:f>
+              <c:f>Sheet1!$C$2:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1703,6 +1718,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2168,10 +2186,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$47</c:f>
+              <c:f>Sheet1!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2309,16 +2327,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$47</c:f>
+              <c:f>Sheet1!$D$2:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2455,6 +2476,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2577,10 +2601,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$47</c:f>
+              <c:f>Sheet1!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2718,16 +2742,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$47</c:f>
+              <c:f>Sheet1!$E$2:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2864,6 +2891,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3304,10 +3334,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$47</c:f>
+              <c:f>Sheet1!$A$2:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3445,16 +3475,19 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>44450</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$47</c:f>
+              <c:f>Sheet1!$H$2:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3592,6 +3625,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5955,15 +5991,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187277</xdr:colOff>
+      <xdr:colOff>187276</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>118848</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>179627</xdr:rowOff>
+      <xdr:colOff>371606</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74254</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5993,15 +6029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>167212</xdr:colOff>
+      <xdr:colOff>414861</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>483478</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>179627</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>298541</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74254</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6031,15 +6067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>184248</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>225930</xdr:rowOff>
+      <xdr:colOff>431898</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>538594</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>189005</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>354419</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>227127</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6070,14 +6106,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>196367</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>223008</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>118233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>135063</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>164721</xdr:rowOff>
+      <xdr:colOff>387964</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>202418</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6404,10 +6440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7795,6 +7831,36 @@
         <v>2</v>
       </c>
     </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>44451</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" ref="D48" si="75">D47+B48</f>
+        <v>570</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" ref="E48" si="76">E47+C48</f>
+        <v>235</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" ref="G48" si="77">G47+F48</f>
+        <v>569</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" ref="H48" si="78">D48-G48</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据统计.xlsx
+++ b/数据统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\nCoV_Yangzhou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55458FFD-AABF-4313-BCD4-CBBD17797B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1588416-F8F5-46B8-8BFD-424C7C0048BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{17D9AA1F-9965-44DD-A91A-71737D961E02}"/>
   </bookViews>
@@ -341,10 +341,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -485,16 +485,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44451</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$48</c:f>
+              <c:f>Sheet1!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -634,6 +637,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1033,10 +1039,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1177,16 +1183,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44451</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$48</c:f>
+              <c:f>Sheet1!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1326,6 +1335,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1428,10 +1440,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -1572,16 +1584,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44451</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$48</c:f>
+              <c:f>Sheet1!$C$2:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>18</c:v>
                 </c:pt>
@@ -1721,6 +1736,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2186,10 +2204,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2330,16 +2348,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44451</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$48</c:f>
+              <c:f>Sheet1!$D$2:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2479,6 +2500,9 @@
                   <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>570</c:v>
                 </c:pt>
               </c:numCache>
@@ -2601,10 +2625,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -2745,16 +2769,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44451</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$48</c:f>
+              <c:f>Sheet1!$E$2:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2894,6 +2921,9 @@
                   <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
@@ -3334,10 +3364,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$48</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>m\/d</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44405</c:v>
                 </c:pt>
@@ -3478,16 +3508,19 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>44451</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$48</c:f>
+              <c:f>Sheet1!$H$2:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3628,6 +3661,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5991,15 +6027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187276</xdr:colOff>
+      <xdr:colOff>187275</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>371606</xdr:colOff>
+      <xdr:colOff>629419</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>74254</xdr:rowOff>
+      <xdr:rowOff>219376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6029,15 +6065,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>414861</xdr:colOff>
+      <xdr:colOff>662510</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>298541</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>118668</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>74254</xdr:rowOff>
+      <xdr:rowOff>219376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6067,15 +6103,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>431898</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>121154</xdr:rowOff>
+      <xdr:colOff>660497</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>354419</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>227127</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>156273</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>10933</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6105,15 +6141,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>196367</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>118233</xdr:rowOff>
+      <xdr:colOff>186841</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>387964</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>202418</xdr:rowOff>
+      <xdr:colOff>636397</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>233438</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6440,10 +6476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E79911-5B4B-4200-B038-9117A76EB7CA}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -7861,6 +7897,36 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>44452</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" ref="D49" si="79">D48+B49</f>
+        <v>570</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" ref="E49" si="80">E48+C49</f>
+        <v>235</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ref="G49" si="81">G48+F49</f>
+        <v>570</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" ref="H49" si="82">D49-G49</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
